--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="160">
   <si>
     <t>Zippy Car Care</t>
   </si>
@@ -408,6 +408,114 @@
   </si>
   <si>
     <t>07947123953</t>
+  </si>
+  <si>
+    <t>07947420029</t>
+  </si>
+  <si>
+    <t>07947420095</t>
+  </si>
+  <si>
+    <t>07947420196</t>
+  </si>
+  <si>
+    <t>07947420189</t>
+  </si>
+  <si>
+    <t>07947420416</t>
+  </si>
+  <si>
+    <t>07947149730</t>
+  </si>
+  <si>
+    <t>07947149912</t>
+  </si>
+  <si>
+    <t>07942684105</t>
+  </si>
+  <si>
+    <t>07947150241</t>
+  </si>
+  <si>
+    <t>07942684222</t>
+  </si>
+  <si>
+    <t>07942691081</t>
+  </si>
+  <si>
+    <t>07942691239</t>
+  </si>
+  <si>
+    <t>07942691294</t>
+  </si>
+  <si>
+    <t>07942691367</t>
+  </si>
+  <si>
+    <t>07942691465</t>
+  </si>
+  <si>
+    <t>07947414098</t>
+  </si>
+  <si>
+    <t>07947414221</t>
+  </si>
+  <si>
+    <t>07947414693</t>
+  </si>
+  <si>
+    <t>07942680160</t>
+  </si>
+  <si>
+    <t>07947414645</t>
+  </si>
+  <si>
+    <t>07947148039</t>
+  </si>
+  <si>
+    <t>07947148154</t>
+  </si>
+  <si>
+    <t>07947148184</t>
+  </si>
+  <si>
+    <t>07942683162</t>
+  </si>
+  <si>
+    <t>Mr Saravanan</t>
+  </si>
+  <si>
+    <t>07942683088</t>
+  </si>
+  <si>
+    <t>07942688701</t>
+  </si>
+  <si>
+    <t>07942688743</t>
+  </si>
+  <si>
+    <t>07942688850</t>
+  </si>
+  <si>
+    <t>07942688971</t>
+  </si>
+  <si>
+    <t>07942689044</t>
+  </si>
+  <si>
+    <t>07947417700</t>
+  </si>
+  <si>
+    <t>07947418007</t>
+  </si>
+  <si>
+    <t>07947118912</t>
+  </si>
+  <si>
+    <t>07947426124</t>
+  </si>
+  <si>
+    <t>07947151016</t>
   </si>
 </sst>
 </file>
@@ -798,7 +906,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>287.0</v>
@@ -818,7 +926,7 @@
         <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>73.0</v>
@@ -838,7 +946,7 @@
         <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>125.0</v>
@@ -858,7 +966,7 @@
         <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>106.0</v>
@@ -875,10 +983,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>67.0</v>
@@ -897,17 +1005,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I8" t="s" s="0">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I9" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="I10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">

--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="168">
   <si>
     <t>Zippy Car Care</t>
   </si>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>07947151016</t>
+  </si>
+  <si>
+    <t>07942684708</t>
+  </si>
+  <si>
+    <t>07947116865</t>
+  </si>
+  <si>
+    <t>07942684823</t>
+  </si>
+  <si>
+    <t>07942684816</t>
+  </si>
+  <si>
+    <t>07947130808</t>
+  </si>
+  <si>
+    <t>07947131175</t>
+  </si>
+  <si>
+    <t>07947130877</t>
+  </si>
+  <si>
+    <t>07947130873</t>
   </si>
 </sst>
 </file>
@@ -903,13 +927,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>287.0</v>
+        <v>145.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
@@ -923,13 +947,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>73.0</v>
+        <v>128.0</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -943,13 +967,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>125.0</v>
+        <v>118.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>15</v>
@@ -963,13 +987,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>106.0</v>
+        <v>69.0</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>16</v>
@@ -983,13 +1007,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>67.0</v>
+        <v>94.0</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>21</v>

--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="178">
   <si>
     <t>Zippy Car Care</t>
   </si>
@@ -540,6 +540,36 @@
   </si>
   <si>
     <t>07947130873</t>
+  </si>
+  <si>
+    <t>07947141676</t>
+  </si>
+  <si>
+    <t>07942677588</t>
+  </si>
+  <si>
+    <t>07947141816</t>
+  </si>
+  <si>
+    <t>07947141649</t>
+  </si>
+  <si>
+    <t>07947142051</t>
+  </si>
+  <si>
+    <t>07942685864</t>
+  </si>
+  <si>
+    <t>07942685936</t>
+  </si>
+  <si>
+    <t>07942686077</t>
+  </si>
+  <si>
+    <t>07942686183</t>
+  </si>
+  <si>
+    <t>07942686282</t>
   </si>
 </sst>
 </file>
@@ -927,13 +957,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>145.0</v>
+        <v>637.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
@@ -947,13 +977,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>128.0</v>
+        <v>100.0</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
@@ -967,13 +997,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>118.0</v>
+        <v>75.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>15</v>
@@ -987,13 +1017,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>69.0</v>
+        <v>171.0</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>16</v>
@@ -1007,13 +1037,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>94.0</v>
+        <v>914.0</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>21</v>

--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="260">
   <si>
     <t>Zippy Car Care</t>
   </si>
@@ -570,6 +570,252 @@
   </si>
   <si>
     <t>07942686282</t>
+  </si>
+  <si>
+    <t>07947128960</t>
+  </si>
+  <si>
+    <t>07947128413</t>
+  </si>
+  <si>
+    <t>07947129363</t>
+  </si>
+  <si>
+    <t>07947129138</t>
+  </si>
+  <si>
+    <t>07947129394</t>
+  </si>
+  <si>
+    <t>07947412623</t>
+  </si>
+  <si>
+    <t>07942685826</t>
+  </si>
+  <si>
+    <t>07942685873</t>
+  </si>
+  <si>
+    <t>07942685915</t>
+  </si>
+  <si>
+    <t>07942685985</t>
+  </si>
+  <si>
+    <t>07942679501</t>
+  </si>
+  <si>
+    <t>07942688252</t>
+  </si>
+  <si>
+    <t>07947412379</t>
+  </si>
+  <si>
+    <t>07942688553</t>
+  </si>
+  <si>
+    <t>07947141434</t>
+  </si>
+  <si>
+    <t>07942677439</t>
+  </si>
+  <si>
+    <t>07947141264</t>
+  </si>
+  <si>
+    <t>09363686898</t>
+  </si>
+  <si>
+    <t>07947141700</t>
+  </si>
+  <si>
+    <t>07942678366</t>
+  </si>
+  <si>
+    <t>07947411210</t>
+  </si>
+  <si>
+    <t>07947143223</t>
+  </si>
+  <si>
+    <t>07942678479</t>
+  </si>
+  <si>
+    <t>07947417825</t>
+  </si>
+  <si>
+    <t>07947418502</t>
+  </si>
+  <si>
+    <t>07947418444</t>
+  </si>
+  <si>
+    <t>07947418036</t>
+  </si>
+  <si>
+    <t>07947418491</t>
+  </si>
+  <si>
+    <t>Ar Auto Detailer</t>
+  </si>
+  <si>
+    <t>07942682026</t>
+  </si>
+  <si>
+    <t>Don Key Water Wash Car &amp; Bikes</t>
+  </si>
+  <si>
+    <t>07942682055</t>
+  </si>
+  <si>
+    <t>Sakee Car Showers (Door Step Car Wash)</t>
+  </si>
+  <si>
+    <t>07947111561</t>
+  </si>
+  <si>
+    <t>Happy Car Wash</t>
+  </si>
+  <si>
+    <t>07947111741</t>
+  </si>
+  <si>
+    <t>Danvanth Car Spa</t>
+  </si>
+  <si>
+    <t>07947111298</t>
+  </si>
+  <si>
+    <t>07947130124</t>
+  </si>
+  <si>
+    <t>07947145959</t>
+  </si>
+  <si>
+    <t>07947145760</t>
+  </si>
+  <si>
+    <t>07947129873</t>
+  </si>
+  <si>
+    <t>07942682548</t>
+  </si>
+  <si>
+    <t>07947124677</t>
+  </si>
+  <si>
+    <t>07947433183</t>
+  </si>
+  <si>
+    <t>07947432979</t>
+  </si>
+  <si>
+    <t>07947435090</t>
+  </si>
+  <si>
+    <t>07947129575</t>
+  </si>
+  <si>
+    <t>07947147111</t>
+  </si>
+  <si>
+    <t>07947128527</t>
+  </si>
+  <si>
+    <t>07947145192</t>
+  </si>
+  <si>
+    <t>07942684103</t>
+  </si>
+  <si>
+    <t>07942684174</t>
+  </si>
+  <si>
+    <t>07947149875</t>
+  </si>
+  <si>
+    <t>07947128368</t>
+  </si>
+  <si>
+    <t>07947435983</t>
+  </si>
+  <si>
+    <t>07947128311</t>
+  </si>
+  <si>
+    <t>07947127764</t>
+  </si>
+  <si>
+    <t>07947434985</t>
+  </si>
+  <si>
+    <t>07947148947</t>
+  </si>
+  <si>
+    <t>07942683484</t>
+  </si>
+  <si>
+    <t>07947149263</t>
+  </si>
+  <si>
+    <t>07942683555</t>
+  </si>
+  <si>
+    <t>07947149255</t>
+  </si>
+  <si>
+    <t>07947413290</t>
+  </si>
+  <si>
+    <t>07947413351</t>
+  </si>
+  <si>
+    <t>07947413395</t>
+  </si>
+  <si>
+    <t>07947116592</t>
+  </si>
+  <si>
+    <t>07947116501</t>
+  </si>
+  <si>
+    <t>07947411542</t>
+  </si>
+  <si>
+    <t>07947116968</t>
+  </si>
+  <si>
+    <t>07947139286</t>
+  </si>
+  <si>
+    <t>07947117346</t>
+  </si>
+  <si>
+    <t>07947139129</t>
+  </si>
+  <si>
+    <t>Carageer Multicar Service Center</t>
+  </si>
+  <si>
+    <t>07947108388</t>
+  </si>
+  <si>
+    <t>Car Detailing Centre (CDC)</t>
+  </si>
+  <si>
+    <t>07947108404</t>
+  </si>
+  <si>
+    <t>Om Sai Car Washing Centre &amp; Car Rent Sarvesh &amp; Second Hand Car Dealer</t>
+  </si>
+  <si>
+    <t>07947108183</t>
+  </si>
+  <si>
+    <t>Tirupati Tyres &amp; 3D Aligement Center</t>
+  </si>
+  <si>
+    <t>07947108034</t>
   </si>
 </sst>
 </file>
@@ -957,19 +1203,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>637.0</v>
+        <v>223.0</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>25</v>
@@ -977,19 +1223,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>100.0</v>
+        <v>28.0</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>26</v>
@@ -997,13 +1243,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>75.0</v>
+        <v>23.0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>15</v>
@@ -1017,13 +1263,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>171.0</v>
+        <v>23.0</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>16</v>
@@ -1037,13 +1283,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>914.0</v>
+        <v>35.0</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>21</v>
